--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\mofiler\WorldCup\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="8070"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -53,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +145,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
-    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -169,7 +164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,10 +238,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +272,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,26 +447,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -481,52 +474,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -536,24 +531,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -521,7 +521,7 @@
     <row r="13" spans="1:2">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -486,7 +486,9 @@
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
@@ -521,7 +523,7 @@
     <row r="13" spans="1:2">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -523,7 +523,7 @@
     <row r="13" spans="1:2">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="8070"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -48,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +150,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
-    <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -164,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,26 +454,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -474,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -482,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -490,40 +497,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>7</v>
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>
@@ -533,24 +542,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>7.25</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,9 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -532,7 +534,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,24 +517,30 @@
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <f>SUM(B5:B12)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="8070"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Hours by Iteration</t>
   </si>
@@ -53,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,10 +143,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
-    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -169,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,10 +239,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,26 +448,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -481,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -489,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -497,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -505,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -513,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -521,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -529,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -537,10 +531,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <f>SUM(B5:B12)</f>
-        <v>13</v>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="4">
+        <f>SUM(B5:B13)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -550,24 +552,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -143,7 +143,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
@@ -452,7 +451,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -532,17 +531,17 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="4">
         <f>SUM(B5:B13)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Hours by Iteration</t>
   </si>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -539,9 +539,17 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="4">
-        <f>SUM(B5:B13)</f>
-        <v>16</v>
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="4">
+        <f>SUM(B5:B14)</f>
+        <v>16.75</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -543,13 +543,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="4">
         <f>SUM(B5:B14)</f>
-        <v>16.75</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -141,8 +141,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
@@ -467,7 +467,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -475,7 +475,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -483,7 +483,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -491,7 +491,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -507,7 +507,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
@@ -515,7 +515,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -523,7 +523,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1">
@@ -531,7 +531,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
@@ -539,17 +539,17 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <f>SUM(B5:B14)</f>
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="8070"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Hours by Iteration</t>
   </si>
@@ -43,13 +48,16 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>#2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +153,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
-    <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -164,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +246,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,109 +457,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f>SUM(B5:B14)</f>
         <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUM(C5:C14)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -559,24 +588,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Hours by Iteration</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
   </si>
 </sst>
 </file>
@@ -458,28 +461,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C14"/>
+      <selection activeCell="D6" sqref="D6:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -487,8 +493,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -496,8 +505,9 @@
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -505,8 +515,9 @@
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -514,8 +525,9 @@
         <v>2</v>
       </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -525,8 +537,9 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -534,8 +547,9 @@
         <v>2</v>
       </c>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -543,8 +557,9 @@
         <v>0</v>
       </c>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -552,8 +567,9 @@
         <v>1</v>
       </c>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -561,8 +577,9 @@
         <v>3</v>
       </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -570,8 +587,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f>SUM(B5:B14)</f>
         <v>18</v>
@@ -579,6 +597,10 @@
       <c r="C15" s="5">
         <f>SUM(C5:C14)</f>
         <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <f>SUM(D5:D14)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
       </c>
       <c r="D15" s="5">
         <f>SUM(D5:D14)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
       </c>
       <c r="D15" s="5">
         <f>SUM(D5:D14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,9 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -600,7 +602,7 @@
       </c>
       <c r="D15" s="5">
         <f>SUM(D5:D14)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="8070"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -59,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +151,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
-    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -175,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,21 +453,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -485,7 +478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -497,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -507,7 +500,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -517,7 +510,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -527,7 +520,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -541,7 +534,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -549,9 +542,11 @@
         <v>2</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -561,7 +556,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -571,7 +566,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -581,7 +576,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -591,7 +586,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" s="5">
         <f>SUM(B5:B14)</f>
         <v>18</v>
@@ -602,7 +597,7 @@
       </c>
       <c r="D15" s="5">
         <f>SUM(D5:D14)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -612,24 +607,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -574,7 +574,9 @@
         <v>3</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
@@ -597,7 +599,7 @@
       </c>
       <c r="D15" s="5">
         <f>SUM(D5:D14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -586,7 +586,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="5">
@@ -599,7 +601,7 @@
       </c>
       <c r="D15" s="5">
         <f>SUM(D5:D14)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Hours by Iteration</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
   </si>
 </sst>
 </file>
@@ -454,20 +457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -477,8 +480,11 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -489,8 +495,9 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -499,8 +506,9 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -509,8 +517,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -519,8 +530,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -533,8 +545,9 @@
       <c r="D9" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -545,8 +558,9 @@
       <c r="D10" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -555,8 +569,9 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -565,8 +580,9 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -577,8 +593,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -589,8 +606,9 @@
       <c r="D14" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="5">
         <f>SUM(B5:B14)</f>
         <v>18</v>
@@ -602,6 +620,10 @@
       <c r="D15" s="5">
         <f>SUM(D5:D14)</f>
         <v>4.5</v>
+      </c>
+      <c r="E15" s="5">
+        <f>SUM(E5:E14)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -518,7 +518,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -623,7 +623,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(E5:E14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -530,7 +530,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
@@ -623,7 +625,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(E5:E14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -547,7 +547,9 @@
       <c r="D9" s="1">
         <v>0.5</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
@@ -625,7 +627,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(E5:E14)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="8070"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -57,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +159,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
-    <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -173,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -215,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,21 +463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -484,7 +491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -497,7 +504,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -508,7 +515,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -521,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -534,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -551,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -564,7 +571,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -573,9 +580,11 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -584,9 +593,11 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -599,7 +610,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -612,7 +623,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f>SUM(B5:B14)</f>
         <v>18</v>
@@ -627,7 +638,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(E5:E14)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -637,24 +648,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(E5:E14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Hours by Iteration</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
   </si>
 </sst>
 </file>
@@ -464,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -490,8 +493,11 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -503,8 +509,9 @@
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -514,8 +521,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -527,8 +535,9 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -540,8 +549,9 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -557,8 +567,9 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -570,8 +581,9 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -583,8 +595,9 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -596,8 +609,11 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -609,8 +625,9 @@
         <v>1</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -622,8 +639,9 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f>SUM(B5:B14)</f>
         <v>18</v>
@@ -639,6 +657,10 @@
       <c r="E15" s="5">
         <f>SUM(E5:E14)</f>
         <v>9</v>
+      </c>
+      <c r="F15" s="5">
+        <f>SUM(F5:F14)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/process/Hours.xlsx
+++ b/process/Hours.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
       </c>
       <c r="F15" s="5">
         <f>SUM(F5:F14)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
